--- a/dev/测试列表.xlsx
+++ b/dev/测试列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="144">
   <si>
     <t xml:space="preserve">阶段</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">网页提示，步骤终止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">充电能量 没有限制输入类型</t>
   </si>
   <si>
     <t xml:space="preserve">信息填写不全</t>
@@ -372,6 +375,15 @@
     <t xml:space="preserve">周期校正</t>
   </si>
   <si>
+    <t xml:space="preserve">充电结束</t>
+  </si>
+  <si>
+    <t xml:space="preserve">列表为零</t>
+  </si>
+  <si>
+    <t xml:space="preserve">能量充满</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phase</t>
   </si>
   <si>
@@ -586,6 +598,16 @@
   </si>
   <si>
     <t xml:space="preserve">Periodische Kalibrierung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufladen
+beenden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planliste leer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energie genug</t>
   </si>
 </sst>
 </file>
@@ -595,7 +617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -628,6 +650,12 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
@@ -729,19 +757,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,10 +956,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -974,13 +1002,15 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -991,10 +1021,10 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1002,10 +1032,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1013,10 +1043,10 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1024,10 +1054,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1035,10 +1065,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1052,13 +1082,13 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1066,10 +1096,10 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1077,10 +1107,10 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1088,10 +1118,10 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1105,13 +1135,13 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -1119,10 +1149,10 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1136,13 +1166,13 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1150,10 +1180,10 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1161,10 +1191,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1172,10 +1202,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1183,10 +1213,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1194,10 +1224,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1205,10 +1235,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1228,16 +1258,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1245,10 +1275,10 @@
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
       <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -1256,10 +1286,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -1273,13 +1303,13 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -1287,10 +1317,10 @@
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1304,13 +1334,13 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -1318,10 +1348,10 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -1335,13 +1365,13 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -1349,10 +1379,10 @@
       <c r="A38" s="3"/>
       <c r="B38" s="5"/>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -1372,16 +1402,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -1395,13 +1425,13 @@
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -1415,13 +1445,13 @@
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -1429,10 +1459,10 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -1440,10 +1470,10 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E47" s="2"/>
     </row>
@@ -1451,10 +1481,10 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -1468,13 +1498,13 @@
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E50" s="2"/>
     </row>
@@ -1482,10 +1512,10 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E51" s="2"/>
     </row>
@@ -1499,13 +1529,13 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2"/>
     </row>
@@ -1513,10 +1543,10 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E54" s="2"/>
     </row>
@@ -1527,8 +1557,28 @@
       <c r="D55" s="8"/>
       <c r="E55" s="2"/>
     </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B14"/>
@@ -1545,6 +1595,7 @@
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.39375" top="0.63125" bottom="0.63125" header="0.39375" footer="0.39375"/>
@@ -1561,10 +1612,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1579,99 +1630,99 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1682,49 +1733,49 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -1735,27 +1786,27 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -1766,82 +1817,82 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E24" s="10"/>
     </row>
@@ -1859,40 +1910,40 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E29" s="10"/>
     </row>
@@ -1903,27 +1954,27 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11"/>
       <c r="B31" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -1934,27 +1985,27 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -1965,27 +2016,27 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E38" s="10"/>
     </row>
@@ -2003,18 +2054,18 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E41" s="10"/>
     </row>
@@ -2025,16 +2076,16 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11"/>
       <c r="B43" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E43" s="10"/>
     </row>
@@ -2045,49 +2096,49 @@
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11"/>
       <c r="B45" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E48" s="10"/>
     </row>
@@ -2098,27 +2149,27 @@
       <c r="D49" s="13"/>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11"/>
       <c r="B50" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E51" s="10"/>
     </row>
@@ -2129,27 +2180,27 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11"/>
       <c r="B53" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E54" s="10"/>
     </row>
@@ -2160,8 +2211,28 @@
       <c r="D55" s="13"/>
       <c r="E55" s="10"/>
     </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B14"/>
@@ -2178,6 +2249,7 @@
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.39375" top="0.63125" bottom="0.63125" header="0.39375" footer="0.39375"/>
